--- a/DBschema.xlsx
+++ b/DBschema.xlsx
@@ -722,8 +722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>

--- a/DBschema.xlsx
+++ b/DBschema.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="97">
   <si>
     <t>user（ユーザ）</t>
     <phoneticPr fontId="3"/>
@@ -143,33 +143,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>paid</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>支払い済</t>
-    <rPh sb="0" eb="2">
-      <t>シハラ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ズ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>未払い:0,支払い済:1</t>
-    <rPh sb="0" eb="2">
-      <t>ミハラ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シハラ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ズ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>meal（弁当）</t>
     <rPh sb="5" eb="7">
       <t>ベントウ</t>
@@ -203,26 +176,11 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>price</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>値段</t>
-    <rPh sb="0" eb="2">
-      <t>ネダン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>menu（メニュー）</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>stock</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -273,34 +231,341 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>在庫</t>
+    <t>index</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>upload/c836f011-069d-901a-5968-0af11c552ba0.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ステータス</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>受け取り済:0,注文:1,キャンセル:-1</t>
+    <rPh sb="0" eb="1">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>チュウモン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>デフォルトでは300</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>s_price</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>m_price</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>l_price</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サイズ小の値段</t>
+    <rPh sb="3" eb="4">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ネダン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サイズ中の値段</t>
+    <rPh sb="3" eb="4">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ネダン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サイズ大の値段</t>
+    <rPh sb="3" eb="4">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ネダン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>個数</t>
     <rPh sb="0" eb="2">
+      <t>コスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サイズ（小、中、大）</t>
+    <rPh sb="4" eb="5">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小：0、中：1、大：2</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>デフォルトは1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>s_stock</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>m_stock</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>l_stock</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>小の在庫</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
       <t>ザイコ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>index</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>index</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>index</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>index</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>index</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>upload/c836f011-069d-901a-5968-0af11c552ba0.png</t>
+    <t>中の在庫</t>
+    <rPh sb="0" eb="1">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ザイコ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>大の在庫</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ザイコ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ステータス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0:無効,1:有効</t>
+    <rPh sb="2" eb="4">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ユウコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>profile（プロフィール）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>本名</t>
+    <rPh sb="0" eb="2">
+      <t>ホンミョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>grade</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>department</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>course</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>club</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>部活・サークル</t>
+    <rPh sb="0" eb="2">
+      <t>ブカツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>学年</t>
+    <rPh sb="0" eb="2">
+      <t>ガクネン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>学部</t>
+    <rPh sb="0" eb="2">
+      <t>ガクブ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>学科</t>
+    <rPh sb="0" eb="2">
+      <t>ガッカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>修士1年</t>
+    <rPh sb="0" eb="2">
+      <t>シュウシ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>工学部</t>
+    <rPh sb="0" eb="3">
+      <t>コウガクブ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>電気情報工学科</t>
+    <rPh sb="0" eb="2">
+      <t>デンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>コウガッカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テニス部</t>
+    <rPh sb="3" eb="4">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Noneだと登録なし</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Noneだと登録なし</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Noneだと登録なし</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -375,7 +640,10 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -402,55 +670,69 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル25" displayName="テーブル25" ref="A3:E5" totalsRowShown="0">
-  <autoFilter ref="A3:E5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル25" displayName="テーブル25" ref="A3:E6" totalsRowShown="0">
+  <autoFilter ref="A3:E6"/>
   <tableColumns count="5">
     <tableColumn id="1" name="カラム名"/>
     <tableColumn id="2" name="概要"/>
     <tableColumn id="3" name="型"/>
     <tableColumn id="4" name="備考"/>
+    <tableColumn id="5" name="例" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="テーブル31322" displayName="テーブル31322" ref="A19:E26" totalsRowShown="0">
+  <autoFilter ref="A19:E26"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="カラム名"/>
+    <tableColumn id="2" name="概要"/>
+    <tableColumn id="3" name="型"/>
+    <tableColumn id="4" name="備考、関連するテーブル"/>
     <tableColumn id="5" name="例" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="テーブル31322" displayName="テーブル31322" ref="A9:E14" totalsRowShown="0">
-  <autoFilter ref="A9:E14"/>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル253" displayName="テーブル253" ref="A30:E36" totalsRowShown="0">
+  <autoFilter ref="A30:E36"/>
   <tableColumns count="5">
     <tableColumn id="1" name="カラム名"/>
     <tableColumn id="2" name="概要"/>
     <tableColumn id="3" name="型"/>
-    <tableColumn id="4" name="備考、関連するテーブル"/>
+    <tableColumn id="4" name="備考"/>
     <tableColumn id="5" name="例" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル253" displayName="テーブル253" ref="A18:E22" totalsRowShown="0">
-  <autoFilter ref="A18:E22"/>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="テーブル313224" displayName="テーブル313224" ref="A40:E46" totalsRowShown="0">
+  <autoFilter ref="A40:E46"/>
   <tableColumns count="5">
     <tableColumn id="1" name="カラム名"/>
     <tableColumn id="2" name="概要"/>
     <tableColumn id="3" name="型"/>
-    <tableColumn id="4" name="備考"/>
+    <tableColumn id="4" name="備考、関連するテーブル"/>
     <tableColumn id="5" name="例" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="テーブル313224" displayName="テーブル313224" ref="A26:E30" totalsRowShown="0">
-  <autoFilter ref="A26:E30"/>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="テーブル257" displayName="テーブル257" ref="A10:E16" totalsRowShown="0">
+  <autoFilter ref="A10:E16"/>
   <tableColumns count="5">
     <tableColumn id="1" name="カラム名"/>
     <tableColumn id="2" name="概要"/>
     <tableColumn id="3" name="型"/>
-    <tableColumn id="4" name="備考、関連するテーブル"/>
+    <tableColumn id="4" name="備考"/>
     <tableColumn id="5" name="例" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -720,10 +1002,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E48"/>
+  <dimension ref="A2:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -731,7 +1013,7 @@
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
     <col min="2" max="2" width="26.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.9140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.08203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="45.4140625" style="2" customWidth="1"/>
     <col min="6" max="16384" width="12" style="2"/>
   </cols>
@@ -755,7 +1037,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -769,10 +1051,10 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -786,302 +1068,537 @@
         <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="2">
         <v>1</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>38</v>
+    </row>
+    <row r="9" spans="1:5" ht="20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="2">
-        <v>20190810</v>
+        <v>45</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1565409468</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>38</v>
+        <v>89</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>53</v>
+        <v>14</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="2">
+        <v>20190810</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="2">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>13</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1565409468</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="2">
         <v>1</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="2">
-        <v>20190810</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="2">
-        <v>100</v>
+    </row>
+    <row r="29" spans="1:5" ht="20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" s="2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" s="2">
+        <v>20190810</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E44" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E45" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30" s="2">
+      <c r="D46" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E46" s="2">
         <v>1565409468</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D43" s="3"/>
-    </row>
-    <row r="44" spans="1:4" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D48" s="3"/>
+    <row r="51" spans="1:4" ht="20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="1"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58" spans="1:4" ht="20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="1"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D62" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="4">
+  <tableParts count="5">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>